--- a/data/pca/factorExposure/factorExposure_2019-01-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.110851357679893</v>
+        <v>-0.06793924274133803</v>
       </c>
       <c r="C2">
-        <v>-0.00178775675496994</v>
+        <v>0.03222025965868945</v>
       </c>
       <c r="D2">
-        <v>0.05135852587604944</v>
+        <v>0.01825489138909675</v>
       </c>
       <c r="E2">
-        <v>0.07016148187459696</v>
+        <v>0.04156106355647805</v>
       </c>
       <c r="F2">
-        <v>-0.1202971064101167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1339919279191104</v>
+      </c>
+      <c r="G2">
+        <v>-0.06865056081981082</v>
+      </c>
+      <c r="H2">
+        <v>0.04973889224393281</v>
+      </c>
+      <c r="I2">
+        <v>-0.1039376280907143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2226222946739073</v>
+        <v>-0.1600944850759999</v>
       </c>
       <c r="C3">
-        <v>-0.1503261685142196</v>
+        <v>0.1109447401205306</v>
       </c>
       <c r="D3">
-        <v>0.009195960680512883</v>
+        <v>-0.00563939011939823</v>
       </c>
       <c r="E3">
-        <v>0.06675751310479384</v>
+        <v>0.005347065354183229</v>
       </c>
       <c r="F3">
-        <v>-0.3378691871648217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3726096304254682</v>
+      </c>
+      <c r="G3">
+        <v>-0.2880119262836607</v>
+      </c>
+      <c r="H3">
+        <v>0.06553368088770656</v>
+      </c>
+      <c r="I3">
+        <v>-0.3643229401657231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09936030120047015</v>
+        <v>-0.07291913725767336</v>
       </c>
       <c r="C4">
-        <v>-0.03607095249753477</v>
+        <v>0.04610257878897581</v>
       </c>
       <c r="D4">
-        <v>0.04464925738705241</v>
+        <v>-0.01543561738589812</v>
       </c>
       <c r="E4">
-        <v>0.01000256053386551</v>
+        <v>0.04210724552159165</v>
       </c>
       <c r="F4">
-        <v>-0.07386760710989775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07916506999016139</v>
+      </c>
+      <c r="G4">
+        <v>-0.02987975207807375</v>
+      </c>
+      <c r="H4">
+        <v>0.04572876026896915</v>
+      </c>
+      <c r="I4">
+        <v>-0.05638014789809783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02100330459855921</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.009619601355470899</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004748313934810298</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005513649755185131</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.007796797351290737</v>
+      </c>
+      <c r="G6">
+        <v>0.01456114937139078</v>
+      </c>
+      <c r="H6">
+        <v>-0.01981437520828989</v>
+      </c>
+      <c r="I6">
+        <v>0.006998234400349702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04612703373842922</v>
+        <v>-0.03502786979220429</v>
       </c>
       <c r="C7">
-        <v>-0.01518272383510465</v>
+        <v>0.01892960145723163</v>
       </c>
       <c r="D7">
-        <v>0.04098355205617797</v>
+        <v>-0.03618285738031752</v>
       </c>
       <c r="E7">
-        <v>0.04680580643590865</v>
+        <v>0.02960335888423639</v>
       </c>
       <c r="F7">
-        <v>-0.04805967244052115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04759659086373545</v>
+      </c>
+      <c r="G7">
+        <v>-0.05090585036716911</v>
+      </c>
+      <c r="H7">
+        <v>-0.004054247030593949</v>
+      </c>
+      <c r="I7">
+        <v>-0.03458414852792339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05377272177768139</v>
+        <v>-0.02841476961326057</v>
       </c>
       <c r="C8">
-        <v>-0.05506057075313622</v>
+        <v>0.05225133847070631</v>
       </c>
       <c r="D8">
-        <v>0.02805054608860042</v>
+        <v>-0.01241763482089759</v>
       </c>
       <c r="E8">
-        <v>0.004285241769716064</v>
+        <v>0.02399017435914587</v>
       </c>
       <c r="F8">
-        <v>-0.07304922558314254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07046273937089376</v>
+      </c>
+      <c r="G8">
+        <v>-0.04702445925202544</v>
+      </c>
+      <c r="H8">
+        <v>0.03708395306337881</v>
+      </c>
+      <c r="I8">
+        <v>-0.0644301376152758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08438731442225464</v>
+        <v>-0.06193287371488437</v>
       </c>
       <c r="C9">
-        <v>-0.0287173277988223</v>
+        <v>0.04291897609145792</v>
       </c>
       <c r="D9">
-        <v>0.0521115024584128</v>
+        <v>-0.01904062492131399</v>
       </c>
       <c r="E9">
-        <v>-0.008527688647571472</v>
+        <v>0.03741339589462447</v>
       </c>
       <c r="F9">
-        <v>-0.06496428922142489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07802044475022764</v>
+      </c>
+      <c r="G9">
+        <v>-0.02524019889811162</v>
+      </c>
+      <c r="H9">
+        <v>0.04192781152166959</v>
+      </c>
+      <c r="I9">
+        <v>-0.02906297524533754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02059229281697057</v>
+        <v>-0.03524379839521326</v>
       </c>
       <c r="C10">
-        <v>0.1624864254969471</v>
+        <v>-0.1623695240094288</v>
       </c>
       <c r="D10">
-        <v>-0.06080674395902087</v>
+        <v>0.01009475493001165</v>
       </c>
       <c r="E10">
-        <v>0.04916508156962537</v>
+        <v>-0.04246535597169403</v>
       </c>
       <c r="F10">
-        <v>-0.0537303615274105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06697620934628228</v>
+      </c>
+      <c r="G10">
+        <v>-0.0300358173924022</v>
+      </c>
+      <c r="H10">
+        <v>0.03942168948770488</v>
+      </c>
+      <c r="I10">
+        <v>-0.05207282497614553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06060607877086781</v>
+        <v>-0.04967926558364562</v>
       </c>
       <c r="C11">
-        <v>-0.01553877157186025</v>
+        <v>0.03217763674145091</v>
       </c>
       <c r="D11">
-        <v>0.001758772380157642</v>
+        <v>0.005797285820066472</v>
       </c>
       <c r="E11">
-        <v>0.02394671724578657</v>
+        <v>0.01173355743974245</v>
       </c>
       <c r="F11">
-        <v>-0.03633962789086405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03716610552454001</v>
+      </c>
+      <c r="G11">
+        <v>-0.0001169018432221527</v>
+      </c>
+      <c r="H11">
+        <v>0.01367574055663981</v>
+      </c>
+      <c r="I11">
+        <v>-0.02582130824927268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0485502644511891</v>
+        <v>-0.04459760712989517</v>
       </c>
       <c r="C12">
-        <v>-0.01960685564834798</v>
+        <v>0.02905752761311015</v>
       </c>
       <c r="D12">
-        <v>0.006374200540742594</v>
+        <v>-0.005411715695700576</v>
       </c>
       <c r="E12">
-        <v>0.003697797094106684</v>
+        <v>0.01233892655996695</v>
       </c>
       <c r="F12">
-        <v>-0.02944931050740479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01421496021430103</v>
+      </c>
+      <c r="G12">
+        <v>-0.002067940384824706</v>
+      </c>
+      <c r="H12">
+        <v>0.002876574088405607</v>
+      </c>
+      <c r="I12">
+        <v>-0.01481066873381015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06413035237506871</v>
+        <v>-0.04369366477511323</v>
       </c>
       <c r="C13">
-        <v>-0.03029441992909497</v>
+        <v>0.02762458697904934</v>
       </c>
       <c r="D13">
-        <v>0.009543554109319853</v>
+        <v>0.01513127087702923</v>
       </c>
       <c r="E13">
-        <v>0.05439026587100551</v>
+        <v>0.01149711391159561</v>
       </c>
       <c r="F13">
-        <v>-0.09723346471084363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1022658520715055</v>
+      </c>
+      <c r="G13">
+        <v>-0.03908893443187545</v>
+      </c>
+      <c r="H13">
+        <v>0.02703416285972782</v>
+      </c>
+      <c r="I13">
+        <v>-0.0593663502012912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03537558390589385</v>
+        <v>-0.0267070085321509</v>
       </c>
       <c r="C14">
-        <v>-0.0211737299322663</v>
+        <v>0.02187246485255051</v>
       </c>
       <c r="D14">
-        <v>0.03700787848537857</v>
+        <v>-0.006123022712365438</v>
       </c>
       <c r="E14">
-        <v>0.02504646708309861</v>
+        <v>0.02937161546892168</v>
       </c>
       <c r="F14">
-        <v>-0.01743231491541448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03380571109915484</v>
+      </c>
+      <c r="G14">
+        <v>-0.05566047178765484</v>
+      </c>
+      <c r="H14">
+        <v>0.01265237667121202</v>
+      </c>
+      <c r="I14">
+        <v>-0.01672300447234633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05235030052111745</v>
+        <v>-0.04300700903203134</v>
       </c>
       <c r="C16">
-        <v>-0.02328119439312375</v>
+        <v>0.03475188558411233</v>
       </c>
       <c r="D16">
-        <v>0.000515896305240751</v>
+        <v>0.000243272202381969</v>
       </c>
       <c r="E16">
-        <v>0.0123435050687535</v>
+        <v>0.009436851054012277</v>
       </c>
       <c r="F16">
-        <v>-0.03270277132497069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03437354008027284</v>
+      </c>
+      <c r="G16">
+        <v>-0.004585802672640107</v>
+      </c>
+      <c r="H16">
+        <v>0.003980027185674979</v>
+      </c>
+      <c r="I16">
+        <v>-0.02739299280399391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06748519246796118</v>
+        <v>-0.05200440830107879</v>
       </c>
       <c r="C19">
-        <v>-0.04882478734236619</v>
+        <v>0.04636482950843291</v>
       </c>
       <c r="D19">
-        <v>0.01748296283635934</v>
+        <v>0.001305985396908165</v>
       </c>
       <c r="E19">
-        <v>0.0281444972608006</v>
+        <v>0.02550063805079943</v>
       </c>
       <c r="F19">
-        <v>-0.08127298128834461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09060151184104881</v>
+      </c>
+      <c r="G19">
+        <v>-0.06358414257810649</v>
+      </c>
+      <c r="H19">
+        <v>0.009919843663273914</v>
+      </c>
+      <c r="I19">
+        <v>-0.0670445055619109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.04038438649533883</v>
+        <v>-0.01926713963633657</v>
       </c>
       <c r="C20">
-        <v>-0.03301525218525506</v>
+        <v>0.02914817763150965</v>
       </c>
       <c r="D20">
-        <v>0.03584597308202021</v>
+        <v>-0.006039018309825031</v>
       </c>
       <c r="E20">
-        <v>0.0144957119748744</v>
+        <v>0.02320365244017218</v>
       </c>
       <c r="F20">
-        <v>-0.06245658275314256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06297441899882403</v>
+      </c>
+      <c r="G20">
+        <v>-0.05803435640179851</v>
+      </c>
+      <c r="H20">
+        <v>0.007471264218189446</v>
+      </c>
+      <c r="I20">
+        <v>-0.07546746752989579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03458528450930896</v>
+        <v>-0.03328980225566188</v>
       </c>
       <c r="C21">
-        <v>-0.03648564278291705</v>
+        <v>0.0309902413525199</v>
       </c>
       <c r="D21">
-        <v>0.01761171930888486</v>
+        <v>-0.01220600431122029</v>
       </c>
       <c r="E21">
-        <v>0.05666215411240909</v>
+        <v>0.009630306195377939</v>
       </c>
       <c r="F21">
-        <v>-0.08955938334776993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07947030914155701</v>
+      </c>
+      <c r="G21">
+        <v>-0.02148983342699685</v>
+      </c>
+      <c r="H21">
+        <v>0.04525020464736426</v>
+      </c>
+      <c r="I21">
+        <v>-0.001478543363312016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05329497953839418</v>
+        <v>-0.04193646089691252</v>
       </c>
       <c r="C24">
-        <v>-0.020510774380954</v>
+        <v>0.02994847486479986</v>
       </c>
       <c r="D24">
-        <v>0.007274893730319338</v>
+        <v>-0.0003604471805735499</v>
       </c>
       <c r="E24">
-        <v>0.01319213628851059</v>
+        <v>0.01265567043084243</v>
       </c>
       <c r="F24">
-        <v>-0.04153148525888789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03747770801585829</v>
+      </c>
+      <c r="G24">
+        <v>0.0005627852245843202</v>
+      </c>
+      <c r="H24">
+        <v>0.005546099764667267</v>
+      </c>
+      <c r="I24">
+        <v>-0.02838291050855879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05392752740262063</v>
+        <v>-0.04829491112939929</v>
       </c>
       <c r="C25">
-        <v>-0.01454223567724617</v>
+        <v>0.02637357207576886</v>
       </c>
       <c r="D25">
-        <v>0.004309451280758261</v>
+        <v>0.0006609105663234729</v>
       </c>
       <c r="E25">
-        <v>0.01695143461279364</v>
+        <v>0.01069377555203045</v>
       </c>
       <c r="F25">
-        <v>-0.03757372024685499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04285797209745203</v>
+      </c>
+      <c r="G25">
+        <v>0.0001990511794582928</v>
+      </c>
+      <c r="H25">
+        <v>0.01185573997523299</v>
+      </c>
+      <c r="I25">
+        <v>-0.01774418599154879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02497406768161932</v>
+        <v>-0.01745966470965762</v>
       </c>
       <c r="C26">
-        <v>-0.03325104217179605</v>
+        <v>0.02875519631386289</v>
       </c>
       <c r="D26">
-        <v>0.02026013705699167</v>
+        <v>0.00428408202498263</v>
       </c>
       <c r="E26">
-        <v>0.04142132304843188</v>
+        <v>0.004815873768346849</v>
       </c>
       <c r="F26">
-        <v>-0.01970985973776389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04120083893221241</v>
+      </c>
+      <c r="G26">
+        <v>-0.03382264608789611</v>
+      </c>
+      <c r="H26">
+        <v>0.01150425391328989</v>
+      </c>
+      <c r="I26">
+        <v>-0.01964538323838876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1215954462795769</v>
+        <v>-0.0729904441526516</v>
       </c>
       <c r="C27">
-        <v>-0.01819158956969243</v>
+        <v>0.02572844452163875</v>
       </c>
       <c r="D27">
-        <v>0.03670261112788721</v>
+        <v>-0.004987083613953545</v>
       </c>
       <c r="E27">
-        <v>0.01400585554815427</v>
+        <v>0.03596223242198546</v>
       </c>
       <c r="F27">
-        <v>-0.08108651898194354</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06408068940309831</v>
+      </c>
+      <c r="G27">
+        <v>-0.01972052380185663</v>
+      </c>
+      <c r="H27">
+        <v>0.02542401477342019</v>
+      </c>
+      <c r="I27">
+        <v>-0.03813156686239225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01960244331668967</v>
+        <v>-0.05188196217319756</v>
       </c>
       <c r="C28">
-        <v>0.2382158619691433</v>
+        <v>-0.2435027355212834</v>
       </c>
       <c r="D28">
-        <v>-0.09212560268853917</v>
+        <v>0.005975051028871179</v>
       </c>
       <c r="E28">
-        <v>0.03072335195834042</v>
+        <v>-0.06009729078635489</v>
       </c>
       <c r="F28">
-        <v>-0.03654581281742676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05721099620151279</v>
+      </c>
+      <c r="G28">
+        <v>-0.03759931293399987</v>
+      </c>
+      <c r="H28">
+        <v>0.04628833043884747</v>
+      </c>
+      <c r="I28">
+        <v>-0.07802923541706373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02795168588248259</v>
+        <v>-0.02324317642733436</v>
       </c>
       <c r="C29">
-        <v>-0.01890893718501153</v>
+        <v>0.01912592229305417</v>
       </c>
       <c r="D29">
-        <v>0.04124810069815962</v>
+        <v>-0.009483757004187738</v>
       </c>
       <c r="E29">
-        <v>0.01736171268403163</v>
+        <v>0.03004161095436343</v>
       </c>
       <c r="F29">
-        <v>-0.02194249556313172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03000679379577085</v>
+      </c>
+      <c r="G29">
+        <v>-0.05546330566980463</v>
+      </c>
+      <c r="H29">
+        <v>0.01717988542334537</v>
+      </c>
+      <c r="I29">
+        <v>-0.001273483768894987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1158741652835068</v>
+        <v>-0.09040471400025353</v>
       </c>
       <c r="C30">
-        <v>-0.02349532620320709</v>
+        <v>0.05005936160286553</v>
       </c>
       <c r="D30">
-        <v>0.02865698671383481</v>
+        <v>0.03738264487766754</v>
       </c>
       <c r="E30">
-        <v>0.05296771035329548</v>
+        <v>0.03556561665464422</v>
       </c>
       <c r="F30">
-        <v>-0.0955393412877958</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1035900928202332</v>
+      </c>
+      <c r="G30">
+        <v>-0.01735574270200733</v>
+      </c>
+      <c r="H30">
+        <v>-0.009777097424560548</v>
+      </c>
+      <c r="I30">
+        <v>-0.02366268744863474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.07016372146861215</v>
+        <v>-0.06063729097991384</v>
       </c>
       <c r="C31">
-        <v>-0.01528243408594349</v>
+        <v>0.02093003684028292</v>
       </c>
       <c r="D31">
-        <v>0.02349833877018292</v>
+        <v>0.009802217576339197</v>
       </c>
       <c r="E31">
-        <v>0.0440006699853286</v>
+        <v>0.02477982954599078</v>
       </c>
       <c r="F31">
-        <v>0.04851283315123936</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.004207504341520138</v>
+      </c>
+      <c r="G31">
+        <v>-0.04577756982087622</v>
+      </c>
+      <c r="H31">
+        <v>0.03162839521282235</v>
+      </c>
+      <c r="I31">
+        <v>-0.01297873882297008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07166943985356587</v>
+        <v>-0.0429731627214432</v>
       </c>
       <c r="C32">
-        <v>-0.03402497700617126</v>
+        <v>0.04492361253379394</v>
       </c>
       <c r="D32">
-        <v>0.03803677418509085</v>
+        <v>-0.01561208939272333</v>
       </c>
       <c r="E32">
-        <v>0.03438472519291026</v>
+        <v>0.03894867956167373</v>
       </c>
       <c r="F32">
-        <v>-0.0868819537923957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08230407060670952</v>
+      </c>
+      <c r="G32">
+        <v>-0.04176362093677127</v>
+      </c>
+      <c r="H32">
+        <v>0.02358174118461282</v>
+      </c>
+      <c r="I32">
+        <v>-0.05257906533564825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.07155446222776471</v>
+        <v>-0.0566777279358017</v>
       </c>
       <c r="C33">
-        <v>-0.05834688053550739</v>
+        <v>0.05685279857037439</v>
       </c>
       <c r="D33">
-        <v>0.03186599064934099</v>
+        <v>0.01831696867655722</v>
       </c>
       <c r="E33">
-        <v>0.05240309647789591</v>
+        <v>0.02004888548039404</v>
       </c>
       <c r="F33">
-        <v>-0.05419779285584411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0712497538053907</v>
+      </c>
+      <c r="G33">
+        <v>-0.03982369936143707</v>
+      </c>
+      <c r="H33">
+        <v>0.03507825532550235</v>
+      </c>
+      <c r="I33">
+        <v>-0.02980958644676656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05186870197514088</v>
+        <v>-0.04373325907709498</v>
       </c>
       <c r="C34">
-        <v>-0.02065096049849879</v>
+        <v>0.03472112888349846</v>
       </c>
       <c r="D34">
-        <v>0.01194185302576631</v>
+        <v>-0.005018879539292103</v>
       </c>
       <c r="E34">
-        <v>0.0114028350158048</v>
+        <v>0.01973864176175101</v>
       </c>
       <c r="F34">
-        <v>-0.02604392696697009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03240732678230536</v>
+      </c>
+      <c r="G34">
+        <v>-0.005871770356852574</v>
+      </c>
+      <c r="H34">
+        <v>0.007036724164562314</v>
+      </c>
+      <c r="I34">
+        <v>-0.0234231824293871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01646694156702988</v>
+        <v>-0.01587705563018249</v>
       </c>
       <c r="C36">
-        <v>-0.001178922551753498</v>
+        <v>0.00474424628187971</v>
       </c>
       <c r="D36">
-        <v>0.01626858994332194</v>
+        <v>-0.004685463198177012</v>
       </c>
       <c r="E36">
-        <v>0.01332864739186856</v>
+        <v>0.01082445922674459</v>
       </c>
       <c r="F36">
-        <v>-0.01363866940168098</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0236716185515118</v>
+      </c>
+      <c r="G36">
+        <v>-0.03872849050951136</v>
+      </c>
+      <c r="H36">
+        <v>0.01822991259544088</v>
+      </c>
+      <c r="I36">
+        <v>0.008733535805105958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04374308140842439</v>
+        <v>-0.03487671365137102</v>
       </c>
       <c r="C38">
-        <v>-0.01537674934784711</v>
+        <v>0.01748437767092262</v>
       </c>
       <c r="D38">
-        <v>0.02971714304378361</v>
+        <v>-0.004412730103419266</v>
       </c>
       <c r="E38">
-        <v>0.001865826205841443</v>
+        <v>0.01404926961950016</v>
       </c>
       <c r="F38">
-        <v>-0.02382729244842286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04725612262783071</v>
+      </c>
+      <c r="G38">
+        <v>-0.02495489432826764</v>
+      </c>
+      <c r="H38">
+        <v>0.02560265644490698</v>
+      </c>
+      <c r="I38">
+        <v>0.01120493748905019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07295987012563505</v>
+        <v>-0.05462285530596634</v>
       </c>
       <c r="C39">
-        <v>-0.02331270583342003</v>
+        <v>0.04684912180445192</v>
       </c>
       <c r="D39">
-        <v>0.01390103943941905</v>
+        <v>0.004853322971099147</v>
       </c>
       <c r="E39">
-        <v>0.02907049383615325</v>
+        <v>0.02127786967006004</v>
       </c>
       <c r="F39">
-        <v>-0.02831971417988503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05408903922677576</v>
+      </c>
+      <c r="G39">
+        <v>0.002300593994380574</v>
+      </c>
+      <c r="H39">
+        <v>0.02010548483031493</v>
+      </c>
+      <c r="I39">
+        <v>-0.004242269295703919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07903426920946945</v>
+        <v>-0.05590106170027363</v>
       </c>
       <c r="C40">
-        <v>-0.03539341564887705</v>
+        <v>0.04270121048095579</v>
       </c>
       <c r="D40">
-        <v>0.02767834318590377</v>
+        <v>0.02051622059125305</v>
       </c>
       <c r="E40">
-        <v>0.03054964376481457</v>
+        <v>0.02758314605081028</v>
       </c>
       <c r="F40">
-        <v>-0.1027231232277282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0935723623016062</v>
+      </c>
+      <c r="G40">
+        <v>-0.03887691116706329</v>
+      </c>
+      <c r="H40">
+        <v>0.02663395718245037</v>
+      </c>
+      <c r="I40">
+        <v>-0.1058771893863016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0009964004462328158</v>
+        <v>-0.003427720897533409</v>
       </c>
       <c r="C41">
-        <v>-0.0249746530325824</v>
+        <v>0.01074598729164163</v>
       </c>
       <c r="D41">
-        <v>0.03685101938574974</v>
+        <v>-1.494517123421149e-05</v>
       </c>
       <c r="E41">
-        <v>0.02091033231016367</v>
+        <v>0.01043420848313795</v>
       </c>
       <c r="F41">
-        <v>0.00898260501618103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.009728769331674254</v>
+      </c>
+      <c r="G41">
+        <v>-0.0451797919491376</v>
+      </c>
+      <c r="H41">
+        <v>0.03603720786768297</v>
+      </c>
+      <c r="I41">
+        <v>-0.01357452407281403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1449838111242373</v>
+        <v>-0.2255738288162279</v>
       </c>
       <c r="C42">
-        <v>-0.415621670950863</v>
+        <v>0.2894774803691186</v>
       </c>
       <c r="D42">
-        <v>-0.8635459875074984</v>
+        <v>0.0534824579321392</v>
       </c>
       <c r="E42">
-        <v>-0.02736793719969262</v>
+        <v>-0.8992967415882438</v>
       </c>
       <c r="F42">
-        <v>0.09044456095691158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1536116350994508</v>
+      </c>
+      <c r="G42">
+        <v>-0.001976200292089652</v>
+      </c>
+      <c r="H42">
+        <v>-0.009566147019901014</v>
+      </c>
+      <c r="I42">
+        <v>-0.05450986220445143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00618752855696984</v>
+        <v>-0.008256100596155702</v>
       </c>
       <c r="C43">
-        <v>-0.02640663590881136</v>
+        <v>0.01442182704363132</v>
       </c>
       <c r="D43">
-        <v>0.03530523777298136</v>
+        <v>0.002528811993679682</v>
       </c>
       <c r="E43">
-        <v>0.02854908511079169</v>
+        <v>0.01088531377045895</v>
       </c>
       <c r="F43">
-        <v>-0.01788921559068124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02377320674005706</v>
+      </c>
+      <c r="G43">
+        <v>-0.03354566073008267</v>
+      </c>
+      <c r="H43">
+        <v>0.02084655822301211</v>
+      </c>
+      <c r="I43">
+        <v>-0.0240019588553236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04477927326710675</v>
+        <v>-0.03015100277297889</v>
       </c>
       <c r="C44">
-        <v>-0.04516475195948589</v>
+        <v>0.0419321267082929</v>
       </c>
       <c r="D44">
-        <v>0.03479418357767802</v>
+        <v>-0.002177593154462987</v>
       </c>
       <c r="E44">
-        <v>0.06662827387830651</v>
+        <v>0.01765243362131557</v>
       </c>
       <c r="F44">
-        <v>-0.1031632702896011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1156111118810932</v>
+      </c>
+      <c r="G44">
+        <v>-0.09783548046872886</v>
+      </c>
+      <c r="H44">
+        <v>0.05073668470360058</v>
+      </c>
+      <c r="I44">
+        <v>-0.05451098183317597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03304575460463206</v>
+        <v>-0.02606886536488306</v>
       </c>
       <c r="C46">
-        <v>-0.02525869824432181</v>
+        <v>0.03522404077798478</v>
       </c>
       <c r="D46">
-        <v>0.04008060806500145</v>
+        <v>0.002902622477415041</v>
       </c>
       <c r="E46">
-        <v>0.03353473987022527</v>
+        <v>0.03423889995067374</v>
       </c>
       <c r="F46">
-        <v>-0.01087509121487802</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04214158043031121</v>
+      </c>
+      <c r="G46">
+        <v>-0.05860766206111074</v>
+      </c>
+      <c r="H46">
+        <v>0.01457980542598932</v>
+      </c>
+      <c r="I46">
+        <v>-0.007716425540078575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09600183572697342</v>
+        <v>-0.0871193459455665</v>
       </c>
       <c r="C47">
-        <v>-0.008194970251142224</v>
+        <v>0.01725713879403371</v>
       </c>
       <c r="D47">
-        <v>0.02619875511991789</v>
+        <v>0.004830734719575408</v>
       </c>
       <c r="E47">
-        <v>0.004770813436914518</v>
+        <v>0.02755963790906333</v>
       </c>
       <c r="F47">
-        <v>0.02988241260831103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01688408112534811</v>
+      </c>
+      <c r="G47">
+        <v>-0.06143979246455512</v>
+      </c>
+      <c r="H47">
+        <v>0.02626593377941308</v>
+      </c>
+      <c r="I47">
+        <v>-0.03336349368439083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02147184480856491</v>
+        <v>-0.02049419922698526</v>
       </c>
       <c r="C48">
-        <v>-0.02249521633245507</v>
+        <v>0.01808256031658205</v>
       </c>
       <c r="D48">
-        <v>0.02463886840893604</v>
+        <v>-0.001010452540111086</v>
       </c>
       <c r="E48">
-        <v>0.02429114881871922</v>
+        <v>0.01502284713298018</v>
       </c>
       <c r="F48">
-        <v>-0.01582369242900646</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02457421805830766</v>
+      </c>
+      <c r="G48">
+        <v>-0.02723510831467112</v>
+      </c>
+      <c r="H48">
+        <v>0.01596438464925391</v>
+      </c>
+      <c r="I48">
+        <v>-0.009311771649955027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09275680166870644</v>
+        <v>-0.08820442542178637</v>
       </c>
       <c r="C50">
-        <v>-0.03038316577703888</v>
+        <v>0.037766110052465</v>
       </c>
       <c r="D50">
-        <v>0.02968556202734825</v>
+        <v>-0.01074225064226174</v>
       </c>
       <c r="E50">
-        <v>0.02238503864648365</v>
+        <v>0.02826136233428312</v>
       </c>
       <c r="F50">
-        <v>0.03534671687512279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.008761192559491066</v>
+      </c>
+      <c r="G50">
+        <v>-0.03439396142623421</v>
+      </c>
+      <c r="H50">
+        <v>-0.01074035713779435</v>
+      </c>
+      <c r="I50">
+        <v>0.00507278475709442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05905499262056085</v>
+        <v>-0.03933321347355211</v>
       </c>
       <c r="C51">
-        <v>0.0147285915809698</v>
+        <v>-0.004314396754992057</v>
       </c>
       <c r="D51">
-        <v>0.008366096154113944</v>
+        <v>0.01112998799042986</v>
       </c>
       <c r="E51">
-        <v>0.07027662369679941</v>
+        <v>0.01110903579942302</v>
       </c>
       <c r="F51">
-        <v>-0.04844755741558644</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09108827878436997</v>
+      </c>
+      <c r="G51">
+        <v>-0.06970540286762453</v>
+      </c>
+      <c r="H51">
+        <v>0.05109845411014788</v>
+      </c>
+      <c r="I51">
+        <v>-0.02775652789561384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1382743219391446</v>
+        <v>-0.1252045758867758</v>
       </c>
       <c r="C53">
-        <v>-0.01528256760890337</v>
+        <v>0.03541906725134422</v>
       </c>
       <c r="D53">
-        <v>0.04958564472536454</v>
+        <v>0.005120174580401727</v>
       </c>
       <c r="E53">
-        <v>0.0008083835402396034</v>
+        <v>0.05739098595582316</v>
       </c>
       <c r="F53">
-        <v>0.06331806987311617</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04928919120479252</v>
+      </c>
+      <c r="G53">
+        <v>-0.00889951584571246</v>
+      </c>
+      <c r="H53">
+        <v>0.02965921489786361</v>
+      </c>
+      <c r="I53">
+        <v>-0.04085971290898165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.03030164992014053</v>
+        <v>-0.02732574867794941</v>
       </c>
       <c r="C54">
-        <v>-0.003786150174477827</v>
+        <v>0.004693843120328999</v>
       </c>
       <c r="D54">
-        <v>0.03811114037718408</v>
+        <v>-0.005120621254505638</v>
       </c>
       <c r="E54">
-        <v>0.02609074583946034</v>
+        <v>0.02863658412899715</v>
       </c>
       <c r="F54">
-        <v>-0.01928734905628844</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02923247405651965</v>
+      </c>
+      <c r="G54">
+        <v>-0.05633758701312742</v>
+      </c>
+      <c r="H54">
+        <v>0.03286985323732523</v>
+      </c>
+      <c r="I54">
+        <v>-0.003249051607942581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.102894727247556</v>
+        <v>-0.09733790155449218</v>
       </c>
       <c r="C55">
-        <v>0.00190655305754081</v>
+        <v>0.03020661194578776</v>
       </c>
       <c r="D55">
-        <v>0.03952422765288258</v>
+        <v>-0.01295277009694458</v>
       </c>
       <c r="E55">
-        <v>-0.03661895529070362</v>
+        <v>0.03786332739422703</v>
       </c>
       <c r="F55">
-        <v>0.01174992205422981</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03612410732047336</v>
+      </c>
+      <c r="G55">
+        <v>-0.0191763592995814</v>
+      </c>
+      <c r="H55">
+        <v>-0.009791372474323183</v>
+      </c>
+      <c r="I55">
+        <v>-0.02175513315905123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1747438980318665</v>
+        <v>-0.1645761284183107</v>
       </c>
       <c r="C56">
-        <v>0.03680350471276186</v>
+        <v>0.01467984794225581</v>
       </c>
       <c r="D56">
-        <v>0.07652805623866961</v>
+        <v>0.0002964974883027476</v>
       </c>
       <c r="E56">
-        <v>-0.05029499501241122</v>
+        <v>0.0876603658532381</v>
       </c>
       <c r="F56">
-        <v>0.09437635161058143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09276939529985799</v>
+      </c>
+      <c r="G56">
+        <v>0.0421253872616678</v>
+      </c>
+      <c r="H56">
+        <v>-0.007707660046451411</v>
+      </c>
+      <c r="I56">
+        <v>-0.04645661538397063</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08573151576085705</v>
+        <v>-0.0675142689853923</v>
       </c>
       <c r="C57">
-        <v>-0.02765096642039563</v>
+        <v>0.0324284967427547</v>
       </c>
       <c r="D57">
-        <v>0.02283154475996925</v>
+        <v>0.01935997430299569</v>
       </c>
       <c r="E57">
-        <v>0.05537673806426369</v>
+        <v>0.007572949319275853</v>
       </c>
       <c r="F57">
-        <v>-0.02504248364589116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06529604923973656</v>
+      </c>
+      <c r="G57">
+        <v>-0.02279551080425129</v>
+      </c>
+      <c r="H57">
+        <v>0.01793521588664573</v>
+      </c>
+      <c r="I57">
+        <v>-0.02434299098251221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.200638519138768</v>
+        <v>-0.2083972349992648</v>
       </c>
       <c r="C58">
-        <v>-0.04004812088458745</v>
+        <v>0.1052591269980211</v>
       </c>
       <c r="D58">
-        <v>0.003159831778154922</v>
+        <v>0.09048434643352639</v>
       </c>
       <c r="E58">
-        <v>0.08335822973612225</v>
+        <v>-0.0007516320939650928</v>
       </c>
       <c r="F58">
-        <v>-0.1027312477657903</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.267281274956145</v>
+      </c>
+      <c r="G58">
+        <v>-0.3736067893637409</v>
+      </c>
+      <c r="H58">
+        <v>-0.3414208925708752</v>
+      </c>
+      <c r="I58">
+        <v>0.6860011975466892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02108351115621246</v>
+        <v>-0.05058426928903784</v>
       </c>
       <c r="C59">
-        <v>0.1958779323478306</v>
+        <v>-0.2005536386579439</v>
       </c>
       <c r="D59">
-        <v>-0.04431485333966969</v>
+        <v>0.01965620515922059</v>
       </c>
       <c r="E59">
-        <v>0.03135294142641443</v>
+        <v>-0.0222478916261329</v>
       </c>
       <c r="F59">
-        <v>-0.0411779298552125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06899432142853539</v>
+      </c>
+      <c r="G59">
+        <v>0.004641926657140156</v>
+      </c>
+      <c r="H59">
+        <v>0.01988585364000177</v>
+      </c>
+      <c r="I59">
+        <v>-0.019047963711049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1880939579310413</v>
+        <v>-0.1922828778646723</v>
       </c>
       <c r="C60">
-        <v>0.08095408484200052</v>
+        <v>-0.05484924269249422</v>
       </c>
       <c r="D60">
-        <v>-0.02461009294674641</v>
+        <v>0.05195893153826804</v>
       </c>
       <c r="E60">
-        <v>0.1104488081233363</v>
+        <v>0.008463807071154914</v>
       </c>
       <c r="F60">
-        <v>-0.1505999961738723</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2034600401877767</v>
+      </c>
+      <c r="G60">
+        <v>0.3120234990177429</v>
+      </c>
+      <c r="H60">
+        <v>0.02011265484571569</v>
+      </c>
+      <c r="I60">
+        <v>0.03159762466337696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0437531115355646</v>
+        <v>-0.03885991509883623</v>
       </c>
       <c r="C61">
-        <v>-0.01308719735478866</v>
+        <v>0.03025153532015218</v>
       </c>
       <c r="D61">
-        <v>0.008384435171294349</v>
+        <v>-0.001266294486395544</v>
       </c>
       <c r="E61">
-        <v>0.01299865795652353</v>
+        <v>0.009513494102116642</v>
       </c>
       <c r="F61">
-        <v>-0.03117170583512285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03675617488417591</v>
+      </c>
+      <c r="G61">
+        <v>0.005672600733383469</v>
+      </c>
+      <c r="H61">
+        <v>0.01308694270906735</v>
+      </c>
+      <c r="I61">
+        <v>0.009374076197702329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04256187518911306</v>
+        <v>-0.03122306332190538</v>
       </c>
       <c r="C63">
-        <v>-0.01482189423103417</v>
+        <v>0.0229409271062355</v>
       </c>
       <c r="D63">
-        <v>0.02240475843309464</v>
+        <v>0.001771345255073346</v>
       </c>
       <c r="E63">
-        <v>0.03329561282958009</v>
+        <v>0.01685742559294524</v>
       </c>
       <c r="F63">
-        <v>-0.02356916590816974</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02676216028709404</v>
+      </c>
+      <c r="G63">
+        <v>-0.05035316392825855</v>
+      </c>
+      <c r="H63">
+        <v>0.003429531944395066</v>
+      </c>
+      <c r="I63">
+        <v>-0.03381468895474005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0746186197427193</v>
+        <v>-0.06121949928892204</v>
       </c>
       <c r="C64">
-        <v>-0.03381938275493478</v>
+        <v>0.04089100417924694</v>
       </c>
       <c r="D64">
-        <v>0.06809369246016121</v>
+        <v>-0.01427315651958662</v>
       </c>
       <c r="E64">
-        <v>-0.01807673273764284</v>
+        <v>0.04421016272395077</v>
       </c>
       <c r="F64">
-        <v>-0.03950402017161474</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04079483912610041</v>
+      </c>
+      <c r="G64">
+        <v>-0.01239463127705409</v>
+      </c>
+      <c r="H64">
+        <v>0.07350118364716129</v>
+      </c>
+      <c r="I64">
+        <v>-0.0549623362572015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02300904337118408</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.00983252687643275</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005303599319330866</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006130637394633938</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.004295290382659882</v>
+      </c>
+      <c r="G65">
+        <v>0.01899898826463237</v>
+      </c>
+      <c r="H65">
+        <v>-0.0184264461931197</v>
+      </c>
+      <c r="I65">
+        <v>0.006406085372126913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08032897853211313</v>
+        <v>-0.06774502676113012</v>
       </c>
       <c r="C66">
-        <v>-0.03150560732610245</v>
+        <v>0.05404990270780356</v>
       </c>
       <c r="D66">
-        <v>0.04227664064293361</v>
+        <v>0.01219379750882522</v>
       </c>
       <c r="E66">
-        <v>0.04153215129261571</v>
+        <v>0.05000299326811848</v>
       </c>
       <c r="F66">
-        <v>-0.06438997899726875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06655171070346078</v>
+      </c>
+      <c r="G66">
+        <v>0.006498309418505457</v>
+      </c>
+      <c r="H66">
+        <v>0.008228116608170827</v>
+      </c>
+      <c r="I66">
+        <v>-0.03761028267601827</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05425938861587853</v>
+        <v>-0.04764552268091882</v>
       </c>
       <c r="C67">
-        <v>0.007878412636231213</v>
+        <v>-0.0007394463652866724</v>
       </c>
       <c r="D67">
-        <v>0.01263787599897262</v>
+        <v>0.001272627538914047</v>
       </c>
       <c r="E67">
-        <v>0.009328496514486518</v>
+        <v>0.00999586672943332</v>
       </c>
       <c r="F67">
-        <v>-0.015296391572825</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03641682062326323</v>
+      </c>
+      <c r="G67">
+        <v>-0.007261150036216971</v>
+      </c>
+      <c r="H67">
+        <v>0.03812133093641586</v>
+      </c>
+      <c r="I67">
+        <v>0.02509539347424869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.0343142655161771</v>
+        <v>-0.06181381762148266</v>
       </c>
       <c r="C68">
-        <v>0.2341710332466015</v>
+        <v>-0.2365774292418015</v>
       </c>
       <c r="D68">
-        <v>-0.07825845781237407</v>
+        <v>0.01984763219977885</v>
       </c>
       <c r="E68">
-        <v>0.03012628174097966</v>
+        <v>-0.04410088394291634</v>
       </c>
       <c r="F68">
-        <v>-0.03317024750346668</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05101629771750926</v>
+      </c>
+      <c r="G68">
+        <v>-0.01785990285996734</v>
+      </c>
+      <c r="H68">
+        <v>-0.0007652880207578691</v>
+      </c>
+      <c r="I68">
+        <v>-0.04167578075152915</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07818609223581589</v>
+        <v>-0.07293008792347054</v>
       </c>
       <c r="C69">
-        <v>-0.005711337389689805</v>
+        <v>0.01773299606410684</v>
       </c>
       <c r="D69">
-        <v>0.02795032773015105</v>
+        <v>0.005887198696412048</v>
       </c>
       <c r="E69">
-        <v>0.007175644701554676</v>
+        <v>0.03128939400551871</v>
       </c>
       <c r="F69">
-        <v>0.02048944463959336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004578067818045758</v>
+      </c>
+      <c r="G69">
+        <v>-0.03491541058335893</v>
+      </c>
+      <c r="H69">
+        <v>0.02036571357961485</v>
+      </c>
+      <c r="I69">
+        <v>-0.01673181611911803</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02932825951567422</v>
+        <v>-0.05661206349273838</v>
       </c>
       <c r="C71">
-        <v>0.2737554468202497</v>
+        <v>-0.2534950473825749</v>
       </c>
       <c r="D71">
-        <v>-0.09967971721602201</v>
+        <v>0.02349071292934909</v>
       </c>
       <c r="E71">
-        <v>0.08069175020888672</v>
+        <v>-0.0710878780925786</v>
       </c>
       <c r="F71">
-        <v>-0.05031981003141756</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06936518766326012</v>
+      </c>
+      <c r="G71">
+        <v>-0.02616016444098924</v>
+      </c>
+      <c r="H71">
+        <v>0.02631646604048839</v>
+      </c>
+      <c r="I71">
+        <v>-0.05130337195542971</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1333433074232011</v>
+        <v>-0.1251856992069855</v>
       </c>
       <c r="C72">
-        <v>0.02833632505513964</v>
+        <v>0.02703732919437821</v>
       </c>
       <c r="D72">
-        <v>0.03534586503002869</v>
+        <v>0.004747089212762587</v>
       </c>
       <c r="E72">
-        <v>0.02090989442580586</v>
+        <v>0.06935383887136572</v>
       </c>
       <c r="F72">
-        <v>-0.06554637666902748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08097917830223673</v>
+      </c>
+      <c r="G72">
+        <v>0.03605087846059313</v>
+      </c>
+      <c r="H72">
+        <v>-0.03834014948483035</v>
+      </c>
+      <c r="I72">
+        <v>0.1239994226025327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2844255189298354</v>
+        <v>-0.272725976275107</v>
       </c>
       <c r="C73">
-        <v>0.1586405382475681</v>
+        <v>-0.07739876405493362</v>
       </c>
       <c r="D73">
-        <v>-0.1030955454834132</v>
+        <v>0.08982744476250827</v>
       </c>
       <c r="E73">
-        <v>0.1671346148387588</v>
+        <v>-0.03957457974130081</v>
       </c>
       <c r="F73">
-        <v>-0.3023433267275727</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3179294029752782</v>
+      </c>
+      <c r="G73">
+        <v>0.5244791145958657</v>
+      </c>
+      <c r="H73">
+        <v>-0.04137065869220585</v>
+      </c>
+      <c r="I73">
+        <v>0.1114643027095922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1546679128457176</v>
+        <v>-0.1497485903515621</v>
       </c>
       <c r="C74">
-        <v>-0.00706003335612853</v>
+        <v>0.03146566476111301</v>
       </c>
       <c r="D74">
-        <v>0.04056126133271526</v>
+        <v>0.01211369506789599</v>
       </c>
       <c r="E74">
-        <v>0.00113261250298259</v>
+        <v>0.05076430360853972</v>
       </c>
       <c r="F74">
-        <v>0.05305464088078694</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06517281158963846</v>
+      </c>
+      <c r="G74">
+        <v>0.0287390228019043</v>
+      </c>
+      <c r="H74">
+        <v>-0.004416696891592276</v>
+      </c>
+      <c r="I74">
+        <v>-0.06904849863452346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2338236016780367</v>
+        <v>-0.2455294710691534</v>
       </c>
       <c r="C75">
-        <v>0.02169485267286906</v>
+        <v>0.01794498990552094</v>
       </c>
       <c r="D75">
-        <v>0.06942793555180558</v>
+        <v>0.02806232162261106</v>
       </c>
       <c r="E75">
-        <v>-0.02162020769666134</v>
+        <v>0.1145276048912112</v>
       </c>
       <c r="F75">
-        <v>0.1481257293074982</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1472968748884669</v>
+      </c>
+      <c r="G75">
+        <v>0.01484697849491597</v>
+      </c>
+      <c r="H75">
+        <v>0.01315811847738155</v>
+      </c>
+      <c r="I75">
+        <v>-0.04842359077932499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2493840938950759</v>
+        <v>-0.2628553313536368</v>
       </c>
       <c r="C76">
-        <v>0.05937893482114357</v>
+        <v>0.002711045886488569</v>
       </c>
       <c r="D76">
-        <v>0.09155970528389683</v>
+        <v>-0.01251175571007137</v>
       </c>
       <c r="E76">
-        <v>-0.07911073440369831</v>
+        <v>0.1353525431364835</v>
       </c>
       <c r="F76">
-        <v>0.1173318599474896</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1827748504611854</v>
+      </c>
+      <c r="G76">
+        <v>0.04368956336604005</v>
+      </c>
+      <c r="H76">
+        <v>-0.05784766745806667</v>
+      </c>
+      <c r="I76">
+        <v>-0.05278778020080852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1373639879735505</v>
+        <v>-0.1207734570077381</v>
       </c>
       <c r="C77">
-        <v>-0.06374567907997508</v>
+        <v>0.07566975147223862</v>
       </c>
       <c r="D77">
-        <v>-0.01272842383226477</v>
+        <v>0.007131987449372391</v>
       </c>
       <c r="E77">
-        <v>0.03887712231392136</v>
+        <v>-0.02902288081724034</v>
       </c>
       <c r="F77">
-        <v>-0.1559588504581708</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1571782059626084</v>
+      </c>
+      <c r="G77">
+        <v>-0.2106675570242349</v>
+      </c>
+      <c r="H77">
+        <v>-0.02631432031531167</v>
+      </c>
+      <c r="I77">
+        <v>-0.243575123947717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.09949501163902358</v>
+        <v>-0.0730408987059448</v>
       </c>
       <c r="C78">
-        <v>-0.068967044577478</v>
+        <v>0.07364308347722527</v>
       </c>
       <c r="D78">
-        <v>0.004083511377854092</v>
+        <v>-0.005164259258129689</v>
       </c>
       <c r="E78">
-        <v>0.01114422223702391</v>
+        <v>0.01368216649113773</v>
       </c>
       <c r="F78">
-        <v>-0.05166929747364072</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06907078124817655</v>
+      </c>
+      <c r="G78">
+        <v>-0.01427487486070552</v>
+      </c>
+      <c r="H78">
+        <v>0.01743876413357568</v>
+      </c>
+      <c r="I78">
+        <v>-0.04777169953643374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05957217141342994</v>
+        <v>-0.1353531555047177</v>
       </c>
       <c r="C80">
-        <v>0.03441512671490719</v>
+        <v>-0.04961787259411699</v>
       </c>
       <c r="D80">
-        <v>-0.02211929720760948</v>
+        <v>-0.9747040622202984</v>
       </c>
       <c r="E80">
-        <v>-0.8918529496048732</v>
+        <v>-0.0609086164770095</v>
       </c>
       <c r="F80">
-        <v>-0.3578072381750452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04801568256836814</v>
+      </c>
+      <c r="G80">
+        <v>0.03089226058880448</v>
+      </c>
+      <c r="H80">
+        <v>0.03847885645174892</v>
+      </c>
+      <c r="I80">
+        <v>0.0959658716134397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1589156205602643</v>
+        <v>-0.1801413741104088</v>
       </c>
       <c r="C81">
-        <v>0.01504286292885875</v>
+        <v>0.004054143465688034</v>
       </c>
       <c r="D81">
-        <v>0.04910953513670192</v>
+        <v>0.006473347987449744</v>
       </c>
       <c r="E81">
-        <v>-0.05642161884445435</v>
+        <v>0.08396734990981229</v>
       </c>
       <c r="F81">
-        <v>0.1660423698883219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1582259429723318</v>
+      </c>
+      <c r="G81">
+        <v>-0.001091841469271954</v>
+      </c>
+      <c r="H81">
+        <v>-0.02374224773043502</v>
+      </c>
+      <c r="I81">
+        <v>-0.0140566176757512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09376348854386589</v>
+        <v>-0.06893490550173582</v>
       </c>
       <c r="C83">
-        <v>-0.08544400926554918</v>
+        <v>0.05757543277750689</v>
       </c>
       <c r="D83">
-        <v>-0.04426560371825015</v>
+        <v>0.01387283183501424</v>
       </c>
       <c r="E83">
-        <v>0.04262265153207457</v>
+        <v>-0.03253157770870659</v>
       </c>
       <c r="F83">
-        <v>0.0014590766915675</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04597040114676899</v>
+      </c>
+      <c r="G83">
+        <v>-0.04975937126938187</v>
+      </c>
+      <c r="H83">
+        <v>0.06397906110194657</v>
+      </c>
+      <c r="I83">
+        <v>-0.05242423460814136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2387364502692654</v>
+        <v>-0.2491796538964643</v>
       </c>
       <c r="C85">
-        <v>-0.0180685158412464</v>
+        <v>0.04869861999058969</v>
       </c>
       <c r="D85">
-        <v>0.07516409172184063</v>
+        <v>0.006060086762405256</v>
       </c>
       <c r="E85">
-        <v>-0.08652674473091407</v>
+        <v>0.1126248798530661</v>
       </c>
       <c r="F85">
-        <v>0.1374996610964248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1854284522533787</v>
+      </c>
+      <c r="G85">
+        <v>-0.00851726117843654</v>
+      </c>
+      <c r="H85">
+        <v>-0.02384924320887966</v>
+      </c>
+      <c r="I85">
+        <v>-0.07632258878943808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04398504237348323</v>
+        <v>-0.02764889429175539</v>
       </c>
       <c r="C86">
-        <v>-0.0472984294219134</v>
+        <v>0.05303330962365235</v>
       </c>
       <c r="D86">
-        <v>0.02430293168975569</v>
+        <v>0.001221059618458301</v>
       </c>
       <c r="E86">
-        <v>0.03173554643073816</v>
+        <v>0.02024069138530398</v>
       </c>
       <c r="F86">
-        <v>-0.06187210535790465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07914367345750119</v>
+      </c>
+      <c r="G86">
+        <v>-0.06274645615042991</v>
+      </c>
+      <c r="H86">
+        <v>0.005172180302460525</v>
+      </c>
+      <c r="I86">
+        <v>-0.05464209606041671</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02370815174351184</v>
+        <v>-0.02970565654075606</v>
       </c>
       <c r="C87">
-        <v>0.04538704755073959</v>
+        <v>-0.00648573621595868</v>
       </c>
       <c r="D87">
-        <v>-0.01433102830956438</v>
+        <v>-0.003753194785774795</v>
       </c>
       <c r="E87">
-        <v>0.02063949979507246</v>
+        <v>-0.002806098223291414</v>
       </c>
       <c r="F87">
-        <v>-0.09668604840867624</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09932709896664244</v>
+      </c>
+      <c r="G87">
+        <v>-0.02290534854302453</v>
+      </c>
+      <c r="H87">
+        <v>-0.01465109721455661</v>
+      </c>
+      <c r="I87">
+        <v>-0.02931520872786234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02757769661913143</v>
+        <v>-0.03178008936816906</v>
       </c>
       <c r="C88">
-        <v>-0.0211523576194827</v>
+        <v>0.01010430682045643</v>
       </c>
       <c r="D88">
-        <v>0.02176943807252556</v>
+        <v>-0.007061462471090453</v>
       </c>
       <c r="E88">
-        <v>-0.01330262174020679</v>
+        <v>0.007401920046701801</v>
       </c>
       <c r="F88">
-        <v>0.009339664896682283</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01429408084563199</v>
+      </c>
+      <c r="G88">
+        <v>-0.02577566560177649</v>
+      </c>
+      <c r="H88">
+        <v>0.04155361649612762</v>
+      </c>
+      <c r="I88">
+        <v>-0.009441419176935978</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.02940555131455334</v>
+        <v>-0.08805696438979106</v>
       </c>
       <c r="C89">
-        <v>0.3612793545082714</v>
+        <v>-0.3911963243821924</v>
       </c>
       <c r="D89">
-        <v>-0.1853101465629618</v>
+        <v>0.05074260118011785</v>
       </c>
       <c r="E89">
-        <v>0.05084287879329495</v>
+        <v>-0.09276040432898845</v>
       </c>
       <c r="F89">
-        <v>0.01272905066248925</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03638635478711817</v>
+      </c>
+      <c r="G89">
+        <v>-0.1070049142425578</v>
+      </c>
+      <c r="H89">
+        <v>0.04243923248828398</v>
+      </c>
+      <c r="I89">
+        <v>-0.08672949584558746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02027308932965522</v>
+        <v>-0.05648523170910968</v>
       </c>
       <c r="C90">
-        <v>0.2883965171057964</v>
+        <v>-0.3217362040574239</v>
       </c>
       <c r="D90">
-        <v>-0.1230961397459475</v>
+        <v>0.02327263718276388</v>
       </c>
       <c r="E90">
-        <v>0.009630550670667298</v>
+        <v>-0.07499547124985347</v>
       </c>
       <c r="F90">
-        <v>-0.05476040380541655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03616589923642428</v>
+      </c>
+      <c r="G90">
+        <v>-0.05469352230648567</v>
+      </c>
+      <c r="H90">
+        <v>0.01749307165386571</v>
+      </c>
+      <c r="I90">
+        <v>-0.07126184133787757</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2733930415811028</v>
+        <v>-0.2878335751230765</v>
       </c>
       <c r="C91">
-        <v>-0.02502063586997912</v>
+        <v>0.0506169994647977</v>
       </c>
       <c r="D91">
-        <v>0.0804454756853261</v>
+        <v>0.01496840220815292</v>
       </c>
       <c r="E91">
-        <v>-0.1262763972184247</v>
+        <v>0.1068207586941603</v>
       </c>
       <c r="F91">
-        <v>0.2489915410444818</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2751111596304283</v>
+      </c>
+      <c r="G91">
+        <v>0.01317629425270207</v>
+      </c>
+      <c r="H91">
+        <v>-0.04485335167762154</v>
+      </c>
+      <c r="I91">
+        <v>-0.06071192060176352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.04876590179380063</v>
+        <v>-0.122737600554841</v>
       </c>
       <c r="C92">
-        <v>0.3143150073578858</v>
+        <v>-0.3724110981339839</v>
       </c>
       <c r="D92">
-        <v>-0.1978048962568847</v>
+        <v>0.0100854036381441</v>
       </c>
       <c r="E92">
-        <v>-0.09860368804506128</v>
+        <v>-0.100932261688722</v>
       </c>
       <c r="F92">
-        <v>0.1110660743570936</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1326001305894053</v>
+      </c>
+      <c r="G92">
+        <v>-0.3373837387150632</v>
+      </c>
+      <c r="H92">
+        <v>-0.05554157210327049</v>
+      </c>
+      <c r="I92">
+        <v>0.1282868889944938</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.01619166026261811</v>
+        <v>-0.07489562074397305</v>
       </c>
       <c r="C93">
-        <v>0.3516086721638991</v>
+        <v>-0.3949005717782686</v>
       </c>
       <c r="D93">
-        <v>-0.1702305808876769</v>
+        <v>0.04180947615673122</v>
       </c>
       <c r="E93">
-        <v>-7.293238505014956e-05</v>
+        <v>-0.1226294272364094</v>
       </c>
       <c r="F93">
-        <v>0.01563487488057411</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.003458733163388327</v>
+      </c>
+      <c r="G93">
+        <v>-0.02803968082595022</v>
+      </c>
+      <c r="H93">
+        <v>0.05630410943906631</v>
+      </c>
+      <c r="I93">
+        <v>-0.006140573611338753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2819169676465235</v>
+        <v>-0.3086482276498784</v>
       </c>
       <c r="C94">
-        <v>0.1021869565621236</v>
+        <v>-0.03936307597757185</v>
       </c>
       <c r="D94">
-        <v>0.01310334576883971</v>
+        <v>0.04030831131961033</v>
       </c>
       <c r="E94">
-        <v>-0.1529031458089156</v>
+        <v>0.1184975062967542</v>
       </c>
       <c r="F94">
-        <v>0.3186285480013062</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3198001651552182</v>
+      </c>
+      <c r="G94">
+        <v>-0.05290566136094395</v>
+      </c>
+      <c r="H94">
+        <v>-0.2143032587227681</v>
+      </c>
+      <c r="I94">
+        <v>-0.01387359169552307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.164291229845355</v>
+        <v>-0.1305190353687541</v>
       </c>
       <c r="C95">
-        <v>-0.04575657153462346</v>
+        <v>0.05638834915167214</v>
       </c>
       <c r="D95">
-        <v>0.02320036830952257</v>
+        <v>0.08424789386945684</v>
       </c>
       <c r="E95">
-        <v>0.009680830004224426</v>
+        <v>0.03113386644322729</v>
       </c>
       <c r="F95">
-        <v>0.3844791161870451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1085321284882637</v>
+      </c>
+      <c r="G95">
+        <v>-0.09075906145888653</v>
+      </c>
+      <c r="H95">
+        <v>0.8741504487409695</v>
+      </c>
+      <c r="I95">
+        <v>0.3485399164821695</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2123824614500484</v>
+        <v>-0.2106239361545048</v>
       </c>
       <c r="C98">
-        <v>0.09518036378551056</v>
+        <v>-0.06646696242555736</v>
       </c>
       <c r="D98">
-        <v>-0.07231373830562579</v>
+        <v>0.06406886343581174</v>
       </c>
       <c r="E98">
-        <v>0.09225919792737312</v>
+        <v>-0.0329219767615345</v>
       </c>
       <c r="F98">
-        <v>-0.06241846811602694</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1735132359521884</v>
+      </c>
+      <c r="G98">
+        <v>0.3410565311727945</v>
+      </c>
+      <c r="H98">
+        <v>0.01043823375965336</v>
+      </c>
+      <c r="I98">
+        <v>0.1159882896826489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02790143679045528</v>
+        <v>-0.0174237784738399</v>
       </c>
       <c r="C101">
-        <v>-0.01831918442167662</v>
+        <v>0.02961238742518195</v>
       </c>
       <c r="D101">
-        <v>0.04240328926235019</v>
+        <v>-0.005231313797520464</v>
       </c>
       <c r="E101">
-        <v>0.01759237854887802</v>
+        <v>0.0384221724354995</v>
       </c>
       <c r="F101">
-        <v>-0.02274540537433126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06049320563515934</v>
+      </c>
+      <c r="G101">
+        <v>-0.1118732248170179</v>
+      </c>
+      <c r="H101">
+        <v>-0.02534879877604545</v>
+      </c>
+      <c r="I101">
+        <v>0.1178180083406188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1090932575334848</v>
+        <v>-0.1172429974893097</v>
       </c>
       <c r="C102">
-        <v>-0.01486908746154165</v>
+        <v>0.02454910921876204</v>
       </c>
       <c r="D102">
-        <v>0.04856259061157359</v>
+        <v>-0.005419014111059132</v>
       </c>
       <c r="E102">
-        <v>-0.06123998679984279</v>
+        <v>0.05449268669676886</v>
       </c>
       <c r="F102">
-        <v>0.08169656034002534</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1146822279997178</v>
+      </c>
+      <c r="G102">
+        <v>0.002113326300725924</v>
+      </c>
+      <c r="H102">
+        <v>-0.001463277737036183</v>
+      </c>
+      <c r="I102">
+        <v>-0.05906654223811338</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02169842048423763</v>
+        <v>-0.02892227436316647</v>
       </c>
       <c r="C103">
-        <v>-0.004970607617571713</v>
+        <v>0.006997912976103748</v>
       </c>
       <c r="D103">
-        <v>0.0154884334411008</v>
+        <v>-0.008850942295900275</v>
       </c>
       <c r="E103">
-        <v>-0.005331994100990606</v>
+        <v>0.01885217950845934</v>
       </c>
       <c r="F103">
-        <v>0.0346487671350191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02655344511740372</v>
+      </c>
+      <c r="G103">
+        <v>-0.01662265193693301</v>
+      </c>
+      <c r="H103">
+        <v>0.009642304923797878</v>
+      </c>
+      <c r="I103">
+        <v>-0.01344341415299504</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
